--- a/example/全市.xlsx
+++ b/example/全市.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>牟方兵</t>
   </si>
@@ -71,13 +71,45 @@
   </si>
   <si>
     <t>重庆市潼南区桂林街道社区卫生服务中心</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
@@ -456,35 +486,35 @@
     <col min="8" max="8" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2">
-        <v>42583</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -493,24 +523,24 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>42506</v>
+        <v>42583</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -519,24 +549,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>42597</v>
+        <v>42506</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -545,18 +575,44 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42597</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>42571</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/example/全市.xlsx
+++ b/example/全市.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
-  <si>
-    <t>牟方兵</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>男</t>
   </si>
@@ -25,83 +22,56 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>'512221195007127272'</t>
-  </si>
-  <si>
-    <t>重庆市市辖区万州区白羊镇石龙7组10号</t>
-  </si>
-  <si>
-    <t>重庆市万州区白羊镇中心卫生院</t>
+    <t>'513522196909092417'</t>
+  </si>
+  <si>
+    <t>重庆市县秀山土家族苗族自治县雅江镇响鼓村董上组</t>
+  </si>
+  <si>
+    <t>重庆市秀山县雅江镇卫生院</t>
+  </si>
+  <si>
+    <t>死者姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>死亡时间</t>
+  </si>
+  <si>
+    <t>生前详细地址</t>
+  </si>
+  <si>
+    <t>户籍地址</t>
+  </si>
+  <si>
+    <t>填报单位名称</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>'510228192512155329'</t>
+  </si>
+  <si>
+    <t>重庆市市辖区铜梁区福果镇林宇村6社</t>
+  </si>
+  <si>
+    <t>重庆市铜梁区福果镇卫生院</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>唐世国</t>
-  </si>
-  <si>
-    <t>'513522196909092417'</t>
-  </si>
-  <si>
-    <t>重庆市县秀山土家族苗族自治县雅江镇响鼓村董上组</t>
-  </si>
-  <si>
-    <t>重庆市秀山县雅江镇卫生院</t>
-  </si>
-  <si>
-    <t>田维昆</t>
-  </si>
-  <si>
-    <t>'513522196410023519'</t>
-  </si>
-  <si>
-    <t>重庆市县秀山土家族苗族自治县宋农镇坪坝村山脚组</t>
-  </si>
-  <si>
-    <t>重庆市秀山县宋农镇卫生院</t>
-  </si>
-  <si>
-    <t>刘思恩</t>
-  </si>
-  <si>
-    <t>'500223201106124859'</t>
-  </si>
-  <si>
-    <t>重庆市市辖区潼南区桂林街道办事处世纪大道499号6幢5单元2-1</t>
-  </si>
-  <si>
-    <t>重庆市市辖区潼南区桂林街道办事处</t>
-  </si>
-  <si>
-    <t>重庆市潼南区桂林街道社区卫生服务中心</t>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -161,12 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,146 +447,134 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="20.375" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="8" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="11.25">
+      <c r="A3" s="1">
+        <v>5.1022819251215501E+17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42583</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42589</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="11.25">
+      <c r="A4" s="1">
+        <v>5.1022819251215501E+17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>42506</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>42597</v>
+        <v>42589</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="2">
-        <v>42571</v>
+        <v>42506</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
